--- a/LiberalArtAdmissionScore.xlsx
+++ b/LiberalArtAdmissionScore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="922" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="922" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="2010" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="257">
   <si>
     <t>院校号</t>
   </si>
@@ -983,9 +983,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>南京工业大学</t>
@@ -2250,7 +2247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
@@ -4131,8 +4128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89:F96"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5613,7 +5610,9 @@
       <c r="D74" s="4">
         <v>0</v>
       </c>
-      <c r="E74" s="4"/>
+      <c r="E74" s="4">
+        <v>580</v>
+      </c>
       <c r="F74" s="4">
         <v>10919</v>
       </c>
@@ -5631,7 +5630,9 @@
       <c r="D75" s="4">
         <v>0</v>
       </c>
-      <c r="E75" s="4"/>
+      <c r="E75" s="4">
+        <v>580</v>
+      </c>
       <c r="F75" s="4">
         <v>10919</v>
       </c>
@@ -5669,7 +5670,9 @@
       <c r="D77" s="4">
         <v>0</v>
       </c>
-      <c r="E77" s="4"/>
+      <c r="E77" s="4">
+        <v>580</v>
+      </c>
       <c r="F77" s="4">
         <v>10919</v>
       </c>
@@ -5707,7 +5710,9 @@
       <c r="D79" s="4">
         <v>0</v>
       </c>
-      <c r="E79" s="4"/>
+      <c r="E79" s="4">
+        <v>580</v>
+      </c>
       <c r="F79" s="4">
         <v>10919</v>
       </c>
@@ -5985,7 +5990,9 @@
       <c r="D93" s="4">
         <v>0</v>
       </c>
-      <c r="E93" s="4"/>
+      <c r="E93" s="4">
+        <v>580</v>
+      </c>
       <c r="F93" s="4">
         <v>10919</v>
       </c>
@@ -6060,8 +6067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7582,8 +7589,8 @@
       <c r="D76" s="8">
         <v>0</v>
       </c>
-      <c r="E76" s="8" t="s">
-        <v>206</v>
+      <c r="E76" s="8">
+        <v>589</v>
       </c>
       <c r="F76" s="8">
         <v>10000</v>
@@ -7622,8 +7629,8 @@
       <c r="D78" s="8">
         <v>0</v>
       </c>
-      <c r="E78" s="8" t="s">
-        <v>206</v>
+      <c r="E78" s="8">
+        <v>589</v>
       </c>
       <c r="F78" s="8">
         <v>10000</v>
@@ -7662,8 +7669,8 @@
       <c r="D80" s="8">
         <v>0</v>
       </c>
-      <c r="E80" s="8" t="s">
-        <v>206</v>
+      <c r="E80" s="8">
+        <v>589</v>
       </c>
       <c r="F80" s="8">
         <v>10000</v>
@@ -7674,7 +7681,7 @@
         <v>10291</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C81" s="8">
         <v>9</v>
@@ -7682,8 +7689,8 @@
       <c r="D81" s="8">
         <v>0</v>
       </c>
-      <c r="E81" s="8" t="s">
-        <v>206</v>
+      <c r="E81" s="8">
+        <v>589</v>
       </c>
       <c r="F81" s="8">
         <v>10000</v>
@@ -7954,7 +7961,7 @@
         <v>10700</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C95" s="8">
         <v>8</v>
@@ -7962,8 +7969,8 @@
       <c r="D95" s="8">
         <v>0</v>
       </c>
-      <c r="E95" s="8" t="s">
-        <v>206</v>
+      <c r="E95" s="8">
+        <v>589</v>
       </c>
       <c r="F95" s="8">
         <v>10000</v>
@@ -7982,8 +7989,8 @@
       <c r="D96" s="8">
         <v>0</v>
       </c>
-      <c r="E96" s="8" t="s">
-        <v>206</v>
+      <c r="E96" s="8">
+        <v>589</v>
       </c>
       <c r="F96" s="8">
         <v>10000</v>
@@ -8014,7 +8021,7 @@
         <v>10755</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C98" s="8">
         <v>2</v>
@@ -8022,8 +8029,8 @@
       <c r="D98" s="8">
         <v>0</v>
       </c>
-      <c r="E98" s="8" t="s">
-        <v>206</v>
+      <c r="E98" s="8">
+        <v>589</v>
       </c>
       <c r="F98" s="8">
         <v>10000</v>
@@ -8059,8 +8066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8087,7 +8094,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -8315,7 +8322,7 @@
         <v>19002</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C13" s="13">
         <v>6</v>
@@ -8875,7 +8882,7 @@
         <v>11846</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C41" s="13">
         <v>1971</v>
@@ -9715,7 +9722,7 @@
         <v>10224</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C83" s="13">
         <v>21</v>
@@ -9723,8 +9730,8 @@
       <c r="D83" s="13">
         <v>0</v>
       </c>
-      <c r="E83" s="14" t="s">
-        <v>206</v>
+      <c r="E83" s="13">
+        <v>594</v>
       </c>
       <c r="F83" s="14">
         <v>12924</v>
@@ -9743,8 +9750,8 @@
       <c r="D84" s="13">
         <v>0</v>
       </c>
-      <c r="E84" s="14" t="s">
-        <v>206</v>
+      <c r="E84" s="13">
+        <v>594</v>
       </c>
       <c r="F84" s="14">
         <v>12924</v>
@@ -9755,7 +9762,7 @@
         <v>10291</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85" s="13">
         <v>10</v>
@@ -9823,8 +9830,8 @@
       <c r="D88" s="13">
         <v>0</v>
       </c>
-      <c r="E88" s="14" t="s">
-        <v>206</v>
+      <c r="E88" s="13">
+        <v>594</v>
       </c>
       <c r="F88" s="14">
         <v>12924</v>
@@ -9843,8 +9850,8 @@
       <c r="D89" s="13">
         <v>0</v>
       </c>
-      <c r="E89" s="14" t="s">
-        <v>206</v>
+      <c r="E89" s="13">
+        <v>594</v>
       </c>
       <c r="F89" s="14">
         <v>12924</v>
@@ -10003,8 +10010,8 @@
       <c r="D97" s="13">
         <v>0</v>
       </c>
-      <c r="E97" s="14" t="s">
-        <v>206</v>
+      <c r="E97" s="13">
+        <v>594</v>
       </c>
       <c r="F97" s="14">
         <v>12924</v>
@@ -10060,8 +10067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10636,7 +10643,7 @@
         <v>19002</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C29" s="16">
         <v>10</v>
@@ -10936,7 +10943,7 @@
         <v>60384</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" s="16">
         <v>10</v>
@@ -10976,7 +10983,7 @@
         <v>60652</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C46" s="16">
         <v>4</v>
@@ -11016,7 +11023,7 @@
         <v>10590</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C48" s="16">
         <v>289</v>
@@ -11316,7 +11323,7 @@
         <v>10054</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C63" s="16">
         <v>10</v>
@@ -11356,7 +11363,7 @@
         <v>10421</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C65" s="16">
         <v>47</v>
@@ -11436,7 +11443,7 @@
         <v>10491</v>
       </c>
       <c r="B69" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C69" s="16">
         <v>15</v>
@@ -11636,7 +11643,7 @@
         <v>11414</v>
       </c>
       <c r="B79" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C79" s="16">
         <v>4</v>
@@ -11776,7 +11783,7 @@
         <v>11078</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C86" s="16">
         <v>459</v>
@@ -11916,7 +11923,7 @@
         <v>10079</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C93" s="16">
         <v>6</v>
@@ -11944,8 +11951,8 @@
       <c r="D94" s="16">
         <v>0</v>
       </c>
-      <c r="E94" s="16" t="s">
-        <v>206</v>
+      <c r="E94" s="16">
+        <v>579</v>
       </c>
       <c r="F94" s="16">
         <v>14000</v>
@@ -11996,7 +12003,7 @@
         <v>10224</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C97" s="16">
         <v>12</v>
@@ -12024,8 +12031,8 @@
       <c r="D98" s="16">
         <v>0</v>
       </c>
-      <c r="E98" s="16" t="s">
-        <v>206</v>
+      <c r="E98" s="16">
+        <v>579</v>
       </c>
       <c r="F98" s="16">
         <v>14000</v>
@@ -12036,7 +12043,7 @@
         <v>10226</v>
       </c>
       <c r="B99" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C99" s="16">
         <v>12</v>
@@ -12044,8 +12051,8 @@
       <c r="D99" s="16">
         <v>0</v>
       </c>
-      <c r="E99" s="16" t="s">
-        <v>206</v>
+      <c r="E99" s="16">
+        <v>579</v>
       </c>
       <c r="F99" s="16">
         <v>14000</v>
@@ -12056,7 +12063,7 @@
         <v>10254</v>
       </c>
       <c r="B100" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C100" s="16">
         <v>33</v>
@@ -12076,7 +12083,7 @@
         <v>10264</v>
       </c>
       <c r="B101" s="17" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C101" s="16">
         <v>26</v>
@@ -12116,7 +12123,7 @@
         <v>10291</v>
       </c>
       <c r="B103" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C103" s="16">
         <v>10</v>
@@ -12176,7 +12183,7 @@
         <v>10338</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C106" s="16">
         <v>20</v>
@@ -12196,7 +12203,7 @@
         <v>10538</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C107" s="16">
         <v>6</v>
@@ -12204,8 +12211,8 @@
       <c r="D107" s="16">
         <v>0</v>
       </c>
-      <c r="E107" s="16" t="s">
-        <v>206</v>
+      <c r="E107" s="16">
+        <v>579</v>
       </c>
       <c r="F107" s="16">
         <v>14000</v>
@@ -12216,7 +12223,7 @@
         <v>10570</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C108" s="16">
         <v>324</v>
@@ -12276,7 +12283,7 @@
         <v>11845</v>
       </c>
       <c r="B111" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C111" s="16">
         <v>1135</v>
@@ -12301,8 +12308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J125" sqref="J125"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12323,7 +12330,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>4</v>
@@ -12517,7 +12524,7 @@
         <v>10027</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C11" s="18">
         <v>10</v>
@@ -12877,7 +12884,7 @@
         <v>19002</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="18">
         <v>10</v>
@@ -13077,7 +13084,7 @@
         <v>10008</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C39" s="18">
         <v>1</v>
@@ -13137,7 +13144,7 @@
         <v>60384</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="18">
         <v>10</v>
@@ -13177,7 +13184,7 @@
         <v>10050</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C44" s="18">
         <v>2</v>
@@ -13257,7 +13264,7 @@
         <v>60652</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C48" s="18">
         <v>6</v>
@@ -13277,7 +13284,7 @@
         <v>60651</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C49" s="18">
         <v>6</v>
@@ -13297,7 +13304,7 @@
         <v>10590</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C50" s="18">
         <v>422</v>
@@ -13417,7 +13424,7 @@
         <v>10054</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56" s="18">
         <v>11</v>
@@ -13437,7 +13444,7 @@
         <v>11414</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C57" s="18">
         <v>4</v>
@@ -13617,7 +13624,7 @@
         <v>10491</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C66" s="18">
         <v>11</v>
@@ -13657,7 +13664,7 @@
         <v>10421</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C68" s="18">
         <v>56</v>
@@ -13917,7 +13924,7 @@
         <v>10254</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C81" s="18">
         <v>34</v>
@@ -14177,7 +14184,7 @@
         <v>10079</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C94" s="18">
         <v>6</v>
@@ -14217,7 +14224,7 @@
         <v>11078</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C96" s="18">
         <v>2147</v>
@@ -14257,7 +14264,7 @@
         <v>10264</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C98" s="18">
         <v>26</v>
@@ -14277,7 +14284,7 @@
         <v>60033</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C99" s="18">
         <v>13</v>
@@ -14297,7 +14304,7 @@
         <v>10110</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C100" s="18">
         <v>6</v>
@@ -14305,8 +14312,8 @@
       <c r="D100" s="18">
         <v>0</v>
       </c>
-      <c r="E100" s="18" t="s">
-        <v>206</v>
+      <c r="E100" s="18">
+        <v>573</v>
       </c>
       <c r="F100" s="18">
         <v>16964</v>
@@ -14325,8 +14332,8 @@
       <c r="D101" s="18">
         <v>0</v>
       </c>
-      <c r="E101" s="18" t="s">
-        <v>206</v>
+      <c r="E101" s="18">
+        <v>573</v>
       </c>
       <c r="F101" s="18">
         <v>16964</v>
@@ -14357,7 +14364,7 @@
         <v>10212</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C103" s="18">
         <v>39</v>
@@ -14377,7 +14384,7 @@
         <v>10216</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="18">
         <v>6</v>
@@ -14385,8 +14392,8 @@
       <c r="D104" s="18">
         <v>0</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>206</v>
+      <c r="E104" s="18">
+        <v>573</v>
       </c>
       <c r="F104" s="18">
         <v>16964</v>
@@ -14397,7 +14404,7 @@
         <v>10224</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C105" s="18">
         <v>6</v>
@@ -14405,8 +14412,8 @@
       <c r="D105" s="18">
         <v>0</v>
       </c>
-      <c r="E105" s="18" t="s">
-        <v>206</v>
+      <c r="E105" s="18">
+        <v>573</v>
       </c>
       <c r="F105" s="18">
         <v>16964</v>
@@ -14425,8 +14432,8 @@
       <c r="D106" s="18">
         <v>0</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>206</v>
+      <c r="E106" s="18">
+        <v>573</v>
       </c>
       <c r="F106" s="18">
         <v>16964</v>
@@ -14437,7 +14444,7 @@
         <v>10226</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C107" s="18">
         <v>3</v>
@@ -14445,8 +14452,8 @@
       <c r="D107" s="18">
         <v>0</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>206</v>
+      <c r="E107" s="18">
+        <v>573</v>
       </c>
       <c r="F107" s="18">
         <v>16964</v>
@@ -14457,7 +14464,7 @@
         <v>10291</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C108" s="18">
         <v>10</v>
@@ -14477,7 +14484,7 @@
         <v>10298</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C109" s="18">
         <v>30</v>
@@ -14517,7 +14524,7 @@
         <v>10338</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C111" s="18">
         <v>35</v>
@@ -14537,7 +14544,7 @@
         <v>10394</v>
       </c>
       <c r="B112" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C112" s="18">
         <v>32</v>
@@ -14557,7 +14564,7 @@
         <v>10404</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C113" s="18">
         <v>6</v>
@@ -14565,8 +14572,8 @@
       <c r="D113" s="18">
         <v>0</v>
       </c>
-      <c r="E113" s="18" t="s">
-        <v>206</v>
+      <c r="E113" s="18">
+        <v>573</v>
       </c>
       <c r="F113" s="18">
         <v>16964</v>
@@ -14577,7 +14584,7 @@
         <v>10475</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" s="18">
         <v>56</v>
@@ -14597,7 +14604,7 @@
         <v>10534</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C115" s="18">
         <v>28</v>
@@ -14617,7 +14624,7 @@
         <v>10536</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C116" s="18">
         <v>33</v>
@@ -14637,7 +14644,7 @@
         <v>10537</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C117" s="18">
         <v>13</v>
@@ -14657,7 +14664,7 @@
         <v>10538</v>
       </c>
       <c r="B118" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C118" s="18">
         <v>6</v>
@@ -14665,8 +14672,8 @@
       <c r="D118" s="18">
         <v>0</v>
       </c>
-      <c r="E118" s="18" t="s">
-        <v>206</v>
+      <c r="E118" s="18">
+        <v>573</v>
       </c>
       <c r="F118" s="18">
         <v>16964</v>
@@ -14677,7 +14684,7 @@
         <v>10570</v>
       </c>
       <c r="B119" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C119" s="18">
         <v>137</v>
@@ -14717,7 +14724,7 @@
         <v>10616</v>
       </c>
       <c r="B121" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C121" s="18">
         <v>36</v>
@@ -14725,8 +14732,8 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="E121" s="18" t="s">
-        <v>206</v>
+      <c r="E121" s="18">
+        <v>573</v>
       </c>
       <c r="F121" s="18">
         <v>16964</v>
@@ -14777,7 +14784,7 @@
         <v>10755</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C124" s="18">
         <v>2</v>
@@ -14785,8 +14792,8 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="E124" s="18" t="s">
-        <v>206</v>
+      <c r="E124" s="18">
+        <v>573</v>
       </c>
       <c r="F124" s="18">
         <v>16964</v>
@@ -14797,7 +14804,7 @@
         <v>11845</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C125" s="18">
         <v>832</v>
@@ -14817,7 +14824,7 @@
         <v>19635</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C126" s="18">
         <v>7</v>
@@ -14825,8 +14832,8 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="E126" s="18" t="s">
-        <v>206</v>
+      <c r="E126" s="18">
+        <v>573</v>
       </c>
       <c r="F126" s="18">
         <v>16964</v>
@@ -14837,7 +14844,7 @@
         <v>60173</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C127" s="18">
         <v>10</v>
@@ -14857,7 +14864,7 @@
         <v>89012</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C128" s="18">
         <v>20</v>
